--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Myoc-Fzd7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Fzd7</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H2">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I2">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J2">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N2">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O2">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P2">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q2">
-        <v>0.4814697805687778</v>
+        <v>0.8158883336566667</v>
       </c>
       <c r="R2">
-        <v>4.333228025119</v>
+        <v>7.34299500291</v>
       </c>
       <c r="S2">
-        <v>0.003306918554130043</v>
+        <v>0.00587640297616068</v>
       </c>
       <c r="T2">
-        <v>0.003306918554130043</v>
+        <v>0.00587640297616068</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H3">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I3">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J3">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>23.672064</v>
       </c>
       <c r="O3">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P3">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q3">
-        <v>2.954933774762666</v>
+        <v>8.77184112896</v>
       </c>
       <c r="R3">
-        <v>26.594403972864</v>
+        <v>78.94657016063999</v>
       </c>
       <c r="S3">
-        <v>0.02029561505281701</v>
+        <v>0.0631788336592647</v>
       </c>
       <c r="T3">
-        <v>0.02029561505281701</v>
+        <v>0.0631788336592647</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H4">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I4">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J4">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N4">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O4">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P4">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q4">
-        <v>2.447847563803444</v>
+        <v>5.529456214473334</v>
       </c>
       <c r="R4">
-        <v>22.030628074231</v>
+        <v>49.76510593026001</v>
       </c>
       <c r="S4">
-        <v>0.01681275305972664</v>
+        <v>0.03982568645105147</v>
       </c>
       <c r="T4">
-        <v>0.01681275305972664</v>
+        <v>0.03982568645105147</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H5">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I5">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J5">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N5">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O5">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P5">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q5">
-        <v>0.9423000186771111</v>
+        <v>2.32077565216</v>
       </c>
       <c r="R5">
-        <v>8.480700168094</v>
+        <v>20.88698086944</v>
       </c>
       <c r="S5">
-        <v>0.006472076838632014</v>
+        <v>0.01671529348658781</v>
       </c>
       <c r="T5">
-        <v>0.006472076838632015</v>
+        <v>0.01671529348658781</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3744836666666667</v>
+        <v>1.11167</v>
       </c>
       <c r="H6">
-        <v>1.123451</v>
+        <v>3.33501</v>
       </c>
       <c r="I6">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="J6">
-        <v>0.06104703021636478</v>
+        <v>0.1644205457720283</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N6">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O6">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P6">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q6">
-        <v>2.061572280268667</v>
+        <v>5.390426317593334</v>
       </c>
       <c r="R6">
-        <v>18.554150522418</v>
+        <v>48.51383685834</v>
       </c>
       <c r="S6">
-        <v>0.01415966671105906</v>
+        <v>0.03882432919896365</v>
       </c>
       <c r="T6">
-        <v>0.01415966671105907</v>
+        <v>0.03882432919896366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.135293000000001</v>
+        <v>5.135293</v>
       </c>
       <c r="H7">
         <v>15.405879</v>
       </c>
       <c r="I7">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J7">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N7">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O7">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P7">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q7">
-        <v>6.602393145405667</v>
+        <v>3.768947303254333</v>
       </c>
       <c r="R7">
-        <v>59.42153830865101</v>
+        <v>33.920525729289</v>
       </c>
       <c r="S7">
-        <v>0.04534776070143014</v>
+        <v>0.02714569167887693</v>
       </c>
       <c r="T7">
-        <v>0.04534776070143015</v>
+        <v>0.02714569167887692</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.135293000000001</v>
+        <v>5.135293</v>
       </c>
       <c r="H8">
         <v>15.405879</v>
       </c>
       <c r="I8">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J8">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>23.672064</v>
       </c>
       <c r="O8">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P8">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q8">
-        <v>40.52099485158401</v>
+        <v>40.520994851584</v>
       </c>
       <c r="R8">
         <v>364.688953664256</v>
       </c>
       <c r="S8">
-        <v>0.2783136867867646</v>
+        <v>0.2918508390426893</v>
       </c>
       <c r="T8">
-        <v>0.2783136867867646</v>
+        <v>0.2918508390426893</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.135293000000001</v>
+        <v>5.135293</v>
       </c>
       <c r="H9">
         <v>15.405879</v>
       </c>
       <c r="I9">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J9">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N9">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O9">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P9">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q9">
-        <v>33.56732370027767</v>
+        <v>25.54299188787267</v>
       </c>
       <c r="R9">
-        <v>302.105913302499</v>
+        <v>229.886926990854</v>
       </c>
       <c r="S9">
-        <v>0.2305532144214821</v>
+        <v>0.1839723738629984</v>
       </c>
       <c r="T9">
-        <v>0.2305532144214821</v>
+        <v>0.1839723738629984</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.135293000000001</v>
+        <v>5.135293</v>
       </c>
       <c r="H10">
         <v>15.405879</v>
       </c>
       <c r="I10">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J10">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N10">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O10">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P10">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q10">
-        <v>12.92175632888067</v>
+        <v>10.720684160864</v>
       </c>
       <c r="R10">
-        <v>116.295806959926</v>
+        <v>96.48615744777598</v>
       </c>
       <c r="S10">
-        <v>0.08875156340122298</v>
+        <v>0.07721529737657759</v>
       </c>
       <c r="T10">
-        <v>0.08875156340122298</v>
+        <v>0.07721529737657759</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,14 +1083,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.135293000000001</v>
+        <v>5.135293</v>
       </c>
       <c r="H11">
         <v>15.405879</v>
       </c>
       <c r="I11">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577722</v>
       </c>
       <c r="J11">
-        <v>0.8371376774088587</v>
+        <v>0.7595308659577723</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N11">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O11">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P11">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q11">
-        <v>28.27033230605801</v>
+        <v>24.90075160412067</v>
       </c>
       <c r="R11">
-        <v>254.4329907545221</v>
+        <v>224.106764437086</v>
       </c>
       <c r="S11">
-        <v>0.1941714520979588</v>
+        <v>0.17934666399663</v>
       </c>
       <c r="T11">
-        <v>0.1941714520979589</v>
+        <v>0.17934666399663</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.5594206666666667</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H12">
-        <v>1.678262</v>
+        <v>0.260443</v>
       </c>
       <c r="I12">
-        <v>0.09119481937794953</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J12">
-        <v>0.09119481937794954</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N12">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O12">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P12">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q12">
-        <v>0.7192413704531111</v>
+        <v>0.06371567260144444</v>
       </c>
       <c r="R12">
-        <v>6.473172334078001</v>
+        <v>0.573441053413</v>
       </c>
       <c r="S12">
-        <v>0.004940024750960561</v>
+        <v>0.000458909574580051</v>
       </c>
       <c r="T12">
-        <v>0.004940024750960563</v>
+        <v>0.000458909574580051</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.5594206666666667</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H13">
-        <v>1.678262</v>
+        <v>0.260443</v>
       </c>
       <c r="I13">
-        <v>0.09119481937794953</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J13">
-        <v>0.09119481937794954</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>23.672064</v>
       </c>
       <c r="O13">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P13">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q13">
-        <v>4.414213941418667</v>
+        <v>0.6850248182613333</v>
       </c>
       <c r="R13">
-        <v>39.727925472768</v>
+        <v>6.165223364351999</v>
       </c>
       <c r="S13">
-        <v>0.03031850922716769</v>
+        <v>0.004933863758945213</v>
       </c>
       <c r="T13">
-        <v>0.0303185092271677</v>
+        <v>0.004933863758945213</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.5594206666666667</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H14">
-        <v>1.678262</v>
+        <v>0.260443</v>
       </c>
       <c r="I14">
-        <v>0.09119481937794953</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J14">
-        <v>0.09119481937794954</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N14">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O14">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P14">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q14">
-        <v>3.656705586735777</v>
+        <v>0.4318152463908889</v>
       </c>
       <c r="R14">
-        <v>32.910350280622</v>
+        <v>3.886337217518</v>
       </c>
       <c r="S14">
-        <v>0.02511565219624438</v>
+        <v>0.003110131980525155</v>
       </c>
       <c r="T14">
-        <v>0.02511565219624439</v>
+        <v>0.003110131980525155</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.5594206666666667</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H15">
-        <v>1.678262</v>
+        <v>0.260443</v>
       </c>
       <c r="I15">
-        <v>0.09119481937794953</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J15">
-        <v>0.09119481937794954</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N15">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O15">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P15">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q15">
-        <v>1.407650457336445</v>
+        <v>0.1812377693546666</v>
       </c>
       <c r="R15">
-        <v>12.668854116028</v>
+        <v>1.631139924192</v>
       </c>
       <c r="S15">
-        <v>0.009668281588922205</v>
+        <v>0.001305357759505186</v>
       </c>
       <c r="T15">
-        <v>0.009668281588922209</v>
+        <v>0.001305357759505186</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.5594206666666667</v>
+        <v>0.08681433333333333</v>
       </c>
       <c r="H16">
-        <v>1.678262</v>
+        <v>0.260443</v>
       </c>
       <c r="I16">
-        <v>0.09119481937794953</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="J16">
-        <v>0.09119481937794954</v>
+        <v>0.01284019544244376</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.505106</v>
+        <v>4.848944666666667</v>
       </c>
       <c r="N16">
-        <v>16.515318</v>
+        <v>14.546834</v>
       </c>
       <c r="O16">
-        <v>0.231946855741777</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="P16">
-        <v>0.2319468557417771</v>
+        <v>0.2361282102347124</v>
       </c>
       <c r="Q16">
-        <v>3.079670068590667</v>
+        <v>0.4209578986068889</v>
       </c>
       <c r="R16">
-        <v>27.717030617316</v>
+        <v>3.788621087462</v>
       </c>
       <c r="S16">
-        <v>0.02115235161465467</v>
+        <v>0.003031932368888156</v>
       </c>
       <c r="T16">
-        <v>0.02115235161465468</v>
+        <v>0.003031932368888156</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06514966666666668</v>
+        <v>0.34273</v>
       </c>
       <c r="H17">
-        <v>0.195449</v>
+        <v>1.02819</v>
       </c>
       <c r="I17">
-        <v>0.01062047299682699</v>
+        <v>0.05069117062837646</v>
       </c>
       <c r="J17">
-        <v>0.01062047299682699</v>
+        <v>0.05069117062837647</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.285689666666667</v>
+        <v>0.7339303333333334</v>
       </c>
       <c r="N17">
-        <v>3.857069</v>
+        <v>2.201791</v>
       </c>
       <c r="O17">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="P17">
-        <v>0.05417001519008476</v>
+        <v>0.03574007706012852</v>
       </c>
       <c r="Q17">
-        <v>0.08376225322011112</v>
+        <v>0.2515399431433333</v>
       </c>
       <c r="R17">
-        <v>0.7538602789810001</v>
+        <v>2.26385948829</v>
       </c>
       <c r="S17">
-        <v>0.0005753111835640031</v>
+        <v>0.001811706344526298</v>
       </c>
       <c r="T17">
-        <v>0.0005753111835640032</v>
+        <v>0.001811706344526298</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.06514966666666668</v>
+        <v>0.34273</v>
       </c>
       <c r="H18">
-        <v>0.195449</v>
+        <v>1.02819</v>
       </c>
       <c r="I18">
-        <v>0.01062047299682699</v>
+        <v>0.05069117062837646</v>
       </c>
       <c r="J18">
-        <v>0.01062047299682699</v>
+        <v>0.05069117062837647</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>23.672064</v>
       </c>
       <c r="O18">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="P18">
-        <v>0.3324586794948855</v>
+        <v>0.3842514532634088</v>
       </c>
       <c r="Q18">
-        <v>0.5140756929706667</v>
+        <v>2.70437549824</v>
       </c>
       <c r="R18">
-        <v>4.626681236736</v>
+        <v>24.33937948416</v>
       </c>
       <c r="S18">
-        <v>0.003530868428136191</v>
+        <v>0.01947815598157708</v>
       </c>
       <c r="T18">
-        <v>0.003530868428136191</v>
+        <v>0.01947815598157708</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.06514966666666668</v>
+        <v>0.34273</v>
       </c>
       <c r="H19">
-        <v>0.195449</v>
+        <v>1.02819</v>
       </c>
       <c r="I19">
-        <v>0.01062047299682699</v>
+        <v>0.05069117062837646</v>
       </c>
       <c r="J19">
-        <v>0.01062047299682699</v>
+        <v>0.05069117062837647</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>6.536593666666666</v>
+        <v>4.974008666666667</v>
       </c>
       <c r="N19">
-        <v>19.609781</v>
+        <v>14.922026</v>
       </c>
       <c r="O19">
-        <v>0.2754065676927831</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="P19">
-        <v>0.2754065676927832</v>
+        <v>0.2422184299659874</v>
       </c>
       <c r="Q19">
-        <v>0.4258568985187778</v>
+        <v>1.704741990326667</v>
       </c>
       <c r="R19">
-        <v>3.832712086669</v>
+        <v>15.34267791294</v>
       </c>
       <c r="S19">
-        <v>0.002924948015330008</v>
+        <v>0.01227833576274332</v>
       </c>
       <c r="T19">
-        <v>0.002924948015330008</v>
+        <v>0.01227833576274332</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.06514966666666668</v>
+        <v>0.34273</v>
       </c>
       <c r="H20">
-        <v>0.195449</v>
+        <v>1.02819</v>
       </c>
       <c r="I20">
-        <v>0.01062047299682699</v>
+        <v>0.05069117062837646</v>
       </c>
       <c r="J20">
-        <v>0.01062047299682699</v>
+        <v>0.05069117062837647</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.516264666666667</v>
+        <v>2.087648</v>
       </c>
       <c r="N20">
-        <v>7.548794</v>
+        <v>6.262943999999999</v>
       </c>
       <c r="O20">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="P20">
-        <v>0.1060178818804695</v>
+        <v>0.1016618294757629</v>
       </c>
       <c r="Q20">
-        <v>0.1639338042784445</v>
+        <v>0.7154995990399998</v>
       </c>
       <c r="R20">
-        <v>1.475404238506</v>
+        <v>6.439496391359999</v>
       </c>
       <c r="S20">
-        <v>0.00112596005169232</v>
+        <v>0.00515335714434881</v>
       </c>
       <c r="T20">
-        <v>0.00112596005169232</v>
+        <v>0.00515335714434881</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.34273</v>
+      </c>
+      <c r="H21">
+        <v>1.02819</v>
+      </c>
+      <c r="I21">
+        <v>0.05069117062837646</v>
+      </c>
+      <c r="J21">
+        <v>0.05069117062837647</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>4.848944666666667</v>
+      </c>
+      <c r="N21">
+        <v>14.546834</v>
+      </c>
+      <c r="O21">
+        <v>0.2361282102347124</v>
+      </c>
+      <c r="P21">
+        <v>0.2361282102347124</v>
+      </c>
+      <c r="Q21">
+        <v>1.661878805606667</v>
+      </c>
+      <c r="R21">
+        <v>14.95690925046</v>
+      </c>
+      <c r="S21">
+        <v>0.01196961539518096</v>
+      </c>
+      <c r="T21">
+        <v>0.01196961539518096</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.253892</v>
+      </c>
+      <c r="I22">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J22">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.7339303333333334</v>
+      </c>
+      <c r="N22">
+        <v>2.201791</v>
+      </c>
+      <c r="O22">
+        <v>0.03574007706012852</v>
+      </c>
+      <c r="P22">
+        <v>0.03574007706012852</v>
+      </c>
+      <c r="Q22">
+        <v>0.0621130133968889</v>
+      </c>
+      <c r="R22">
+        <v>0.559017120572</v>
+      </c>
+      <c r="S22">
+        <v>0.0004473664859845661</v>
+      </c>
+      <c r="T22">
+        <v>0.0004473664859845661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.253892</v>
+      </c>
+      <c r="I23">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J23">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.890688</v>
+      </c>
+      <c r="N23">
+        <v>23.672064</v>
+      </c>
+      <c r="O23">
+        <v>0.3842514532634088</v>
+      </c>
+      <c r="P23">
+        <v>0.3842514532634088</v>
+      </c>
+      <c r="Q23">
+        <v>0.6677941858986667</v>
+      </c>
+      <c r="R23">
+        <v>6.010147673087999</v>
+      </c>
+      <c r="S23">
+        <v>0.004809760820932482</v>
+      </c>
+      <c r="T23">
+        <v>0.004809760820932482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.253892</v>
+      </c>
+      <c r="I24">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J24">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>4.974008666666667</v>
+      </c>
+      <c r="N24">
+        <v>14.922026</v>
+      </c>
+      <c r="O24">
+        <v>0.2422184299659874</v>
+      </c>
+      <c r="P24">
+        <v>0.2422184299659874</v>
+      </c>
+      <c r="Q24">
+        <v>0.4209536694657778</v>
+      </c>
+      <c r="R24">
+        <v>3.788583025192</v>
+      </c>
+      <c r="S24">
+        <v>0.003031901908669048</v>
+      </c>
+      <c r="T24">
+        <v>0.003031901908669048</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.06514966666666668</v>
-      </c>
-      <c r="H21">
-        <v>0.195449</v>
-      </c>
-      <c r="I21">
-        <v>0.01062047299682699</v>
-      </c>
-      <c r="J21">
-        <v>0.01062047299682699</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.505106</v>
-      </c>
-      <c r="N21">
-        <v>16.515318</v>
-      </c>
-      <c r="O21">
-        <v>0.231946855741777</v>
-      </c>
-      <c r="P21">
-        <v>0.2319468557417771</v>
-      </c>
-      <c r="Q21">
-        <v>0.3586558208646667</v>
-      </c>
-      <c r="R21">
-        <v>3.227902387782</v>
-      </c>
-      <c r="S21">
-        <v>0.002463385318104469</v>
-      </c>
-      <c r="T21">
-        <v>0.002463385318104469</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.253892</v>
+      </c>
+      <c r="I25">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J25">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.087648</v>
+      </c>
+      <c r="N25">
+        <v>6.262943999999999</v>
+      </c>
+      <c r="O25">
+        <v>0.1016618294757629</v>
+      </c>
+      <c r="P25">
+        <v>0.1016618294757629</v>
+      </c>
+      <c r="Q25">
+        <v>0.1766790420053333</v>
+      </c>
+      <c r="R25">
+        <v>1.590111378048</v>
+      </c>
+      <c r="S25">
+        <v>0.001272523708743528</v>
+      </c>
+      <c r="T25">
+        <v>0.001272523708743528</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.08463066666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.253892</v>
+      </c>
+      <c r="I26">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="J26">
+        <v>0.01251722219937926</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.848944666666667</v>
+      </c>
+      <c r="N26">
+        <v>14.546834</v>
+      </c>
+      <c r="O26">
+        <v>0.2361282102347124</v>
+      </c>
+      <c r="P26">
+        <v>0.2361282102347124</v>
+      </c>
+      <c r="Q26">
+        <v>0.4103694197697779</v>
+      </c>
+      <c r="R26">
+        <v>3.693324777928</v>
+      </c>
+      <c r="S26">
+        <v>0.002955669275049634</v>
+      </c>
+      <c r="T26">
+        <v>0.002955669275049634</v>
       </c>
     </row>
   </sheetData>
